--- a/locators.xlsx
+++ b/locators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wipro_Training\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D9D10A-06E4-4A73-8ACD-C885102C6C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAFABCD-5C8F-4ADE-A109-689FB6E4A43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A4A8476-766A-4A23-A4E0-8EBB26BDF789}"/>
   </bookViews>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>FirstName</t>
   </si>
@@ -199,6 +202,30 @@
   </si>
   <si>
     <t>//button[@type='submit']</t>
+  </si>
+  <si>
+    <t>absolute path</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div/form/fieldset[1]/div[2]/div/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div/form/fieldset[1]/div[3]/div/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div/form/fieldset[1]/div[4]/div/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div/form/fieldset[2]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div/form/fieldset[3]/div/div/label[2]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div/form/div/div/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div/form/div/div/input[1]</t>
   </si>
 </sst>
 </file>
@@ -551,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B6E1AF-3F0D-4D1B-B8A4-C0E39501FA37}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,9 +594,10 @@
     <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -603,8 +631,11 @@
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +667,11 @@
       <c r="K2" t="s">
         <v>51</v>
       </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -669,8 +703,11 @@
       <c r="K3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,8 +739,11 @@
       <c r="K4" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -735,8 +775,11 @@
       <c r="K5" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +811,11 @@
       <c r="K6" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,8 +847,11 @@
       <c r="K7" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -833,6 +882,9 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
